--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43951,6 +43951,43 @@
         <v>100</v>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I1204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43988,6 +43988,41 @@
         </is>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44023,6 +44023,43 @@
         <v>200</v>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44060,6 +44060,43 @@
         </is>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44097,6 +44097,43 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44134,6 +44134,43 @@
         </is>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44171,6 +44171,43 @@
         </is>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44208,6 +44208,43 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44245,6 +44245,41 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>1100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44280,6 +44280,41 @@
         <v>1100</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>478000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44315,6 +44315,43 @@
         <v>478000</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44352,6 +44352,80 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44426,6 +44426,80 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44500,6 +44500,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44537,6 +44537,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44574,6 +44574,43 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44611,6 +44611,43 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44648,6 +44648,43 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44685,6 +44685,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44722,6 +44722,43 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2294"/>
+  <dimension ref="A1:I2295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82174,6 +82174,41 @@
         </is>
       </c>
     </row>
+    <row r="2295">
+      <c r="A2295" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2295" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D2295" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E2295" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F2295" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G2295" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H2295" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I2295" t="n">
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2295"/>
+  <dimension ref="A1:I2296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82209,6 +82209,43 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="2296">
+      <c r="A2296" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2296" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D2296" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E2296" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F2296" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G2296" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H2296" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I2296" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2296"/>
+  <dimension ref="A1:I2297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82246,6 +82246,41 @@
         </is>
       </c>
     </row>
+    <row r="2297">
+      <c r="A2297" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2297" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2297" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D2297" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E2297" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2297" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2297" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2297" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2297" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2297"/>
+  <dimension ref="A1:I2298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82281,6 +82281,43 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2298">
+      <c r="A2298" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2298" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2298" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D2298" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E2298" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2298" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2298" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2298" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2298" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2298"/>
+  <dimension ref="A1:I2299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82318,6 +82318,43 @@
         </is>
       </c>
     </row>
+    <row r="2299">
+      <c r="A2299" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2299" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D2299" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E2299" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2299" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2299" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2299" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2299" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2299"/>
+  <dimension ref="A1:I2300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82355,6 +82355,43 @@
         </is>
       </c>
     </row>
+    <row r="2300">
+      <c r="A2300" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2300" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D2300" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E2300" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2300" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2300" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2300" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2300" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2300"/>
+  <dimension ref="A1:I2301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82392,6 +82392,43 @@
         </is>
       </c>
     </row>
+    <row r="2301">
+      <c r="A2301" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2301" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D2301" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E2301" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2301" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2301" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2301" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2301" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2301"/>
+  <dimension ref="A1:I2302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82429,6 +82429,41 @@
         </is>
       </c>
     </row>
+    <row r="2302">
+      <c r="A2302" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2302" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D2302" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E2302" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F2302" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2302" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H2302" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I2302" t="n">
+        <v>1100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7094.xlsx
+++ b/data/7094.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2302"/>
+  <dimension ref="A1:I2303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82464,6 +82464,41 @@
         <v>1100</v>
       </c>
     </row>
+    <row r="2303">
+      <c r="A2303" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2303" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="D2303" t="inlineStr">
+        <is>
+          <t>EUROSP</t>
+        </is>
+      </c>
+      <c r="E2303" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2303" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2303" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2303" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2303" t="n">
+        <v>2700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
